--- a/P4 Stroke Incidence.xlsx
+++ b/P4 Stroke Incidence.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14376" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14376" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HIPE_CSO Calc W" sheetId="20" r:id="rId1"/>
     <sheet name="HIPE_CSO Calc M" sheetId="21" r:id="rId2"/>
-    <sheet name="NDPSS OOH Output" sheetId="18" r:id="rId3"/>
-    <sheet name="Stroke Incidence W" sheetId="16" r:id="rId4"/>
-    <sheet name="Stroke Incidence M" sheetId="17" r:id="rId5"/>
-    <sheet name="OOH Data" sheetId="14" r:id="rId6"/>
-    <sheet name="Inc Rec Data" sheetId="8" r:id="rId7"/>
-    <sheet name="Source" sheetId="9" r:id="rId8"/>
+    <sheet name="Stroke Incidence W" sheetId="16" r:id="rId3"/>
+    <sheet name="Stroke Incidence M" sheetId="17" r:id="rId4"/>
+    <sheet name="OOH Data" sheetId="14" r:id="rId5"/>
+    <sheet name="Inc Rec Data" sheetId="8" r:id="rId6"/>
+    <sheet name="MetaData" sheetId="9" r:id="rId7"/>
+    <sheet name="Data Dictionary" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>50-54</t>
   </si>
@@ -42,18 +42,6 @@
     <t>55-59</t>
   </si>
   <si>
-    <t>Rehabilitation Hospital discharges</t>
-  </si>
-  <si>
-    <t>Discharges with a principal dx of rehabilitation</t>
-  </si>
-  <si>
-    <t>Discharges with a LOS &lt; 1 day that were transferred to another hospital or home</t>
-  </si>
-  <si>
-    <t>Discharges with an area of residence outside Rep. of Ireland</t>
-  </si>
-  <si>
     <t>60-64</t>
   </si>
   <si>
@@ -69,36 +57,12 @@
     <t>85-89</t>
   </si>
   <si>
-    <t>Exclude:</t>
-  </si>
-  <si>
-    <t>TIA &amp; stroke not specified</t>
-  </si>
-  <si>
-    <t>Number of discharges with a principal or secondary diagnosis of ischaemic or haemorrhagic stroke from HIPE, 2015</t>
-  </si>
-  <si>
-    <t>Stroke events which do not give rise to an acute hospitalisation</t>
-  </si>
-  <si>
     <t>Age Group</t>
   </si>
   <si>
     <t>OOH</t>
   </si>
   <si>
-    <t>All strokes, aged 40-89, n=500</t>
-  </si>
-  <si>
-    <t>OOH defined as not hospitalised for the qualifying event, or hospitalised in a non-acute hospitalised setting</t>
-  </si>
-  <si>
-    <t>Gold standard population ascertainment study</t>
-  </si>
-  <si>
-    <t>North Dublin, December 1, 2005–November 30, 2006</t>
-  </si>
-  <si>
     <t>OOH_N</t>
   </si>
   <si>
@@ -132,231 +96,12 @@
     <t>Age 80-89</t>
   </si>
   <si>
-    <t xml:space="preserve">          |       RECODE of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           | Hospitalisedwithquali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |       fyingeve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |  (Hospitalised with</t>
-  </si>
-  <si>
-    <t>Hospitalised</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>% OOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RECODE of |   qualifying event)</t>
-  </si>
-  <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> age (age) |         0          1 |     Total</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>-----------+----------------------+----------</t>
-  </si>
-  <si>
-    <t>60-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       &lt;50 |        32          5 |        37 </t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     86.49      13.51 |    100.00 </t>
-  </si>
-  <si>
     <t>80-89</t>
   </si>
   <si>
     <t>90+</t>
   </si>
   <si>
-    <t xml:space="preserve">     50-59 |        64          5 |        69 </t>
-  </si>
-  <si>
-    <t>Out of hospital rate highest in &lt;50 and in 90+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     92.75       7.25 |    100.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     60-69 |       104         10 |       114 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     91.23       8.77 |    100.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     70-79 |       141         15 |       156 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     90.38       9.62 |    100.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     80-89 |       119         16 |       135 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     88.15      11.85 |    100.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       90+ |        24          9 |        33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     72.73      27.27 |    100.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Total |       484         60 |       544 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           |     88.97      11.03 |    100.00 </t>
-  </si>
-  <si>
-    <t>. logistic ooh age age2 if stroke == 1 &amp; age &gt;=40 &amp; age&lt;90</t>
-  </si>
-  <si>
-    <t>Age effect not statistically significant in age 40-89 age group</t>
-  </si>
-  <si>
-    <t>Logistic regression                             Number of obs     =        500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                LR chi2(2)        =       0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                Prob &gt; chi2       =     0.8415</t>
-  </si>
-  <si>
-    <t>Log likelihood = -162.36886                     Pseudo R2         =     0.0011</t>
-  </si>
-  <si>
-    <t>------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ooh | Odds Ratio   Std. Err.      z    P&gt;|z|     [95% Conf. Interval]</t>
-  </si>
-  <si>
-    <t>-------------+----------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         age |   .9287845   .1236268    -0.56   0.579     .7155087    1.205633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        age2 |   1.000563   .0009835     0.57   0.567     .9986369    1.002492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       _cons |   1.146217   5.052036     0.03   0.975      .000203    6471.425</t>
-  </si>
-  <si>
-    <t>. logistic ooh i.age10 if stroke == 1 &amp; age &gt;=40 &amp; age&lt;90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                LR chi2(4)        =       2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                Prob &gt; chi2       =     0.7208</t>
-  </si>
-  <si>
-    <t>Log likelihood = -161.50078                     Pseudo R2         =     0.0064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       age10 |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      50-59  |   .4296875   .3071829    -1.18   0.237     .1058352    1.744517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      60-69  |   .5288462   .3365847    -1.00   0.317     .1519082      1.8411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      70-79  |   .5851064   .3555278    -0.88   0.378     .1778361    1.925085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      80-89  |   .7394958   .4475984    -0.50   0.618     .2258004    2.421847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       _cons |   .1818182   .0988286    -3.14   0.002     .0626557    .5276113</t>
-  </si>
-  <si>
-    <t>. tab ooh if stroke == 1 &amp; age &gt;=40 &amp; age&lt;90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  RECODE of |</t>
-  </si>
-  <si>
-    <t>Hospitalise |</t>
-  </si>
-  <si>
-    <t>dwithqualif |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    yingeve |</t>
-  </si>
-  <si>
-    <t>(Hospitalis |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ed with |</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> qualifying |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     event) |      Freq.     Percent        Cum.</t>
-  </si>
-  <si>
-    <t>------------+-----------------------------------</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>OOH rate is 10% in age 40-89 age group, 95% CI 7.6%-13.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Total |        500      100.00</t>
-  </si>
-  <si>
-    <t>. proportion ooh if stroke == 1 &amp; age &gt;=40 &amp; age&lt;90</t>
-  </si>
-  <si>
-    <t>Proportion estimation             Number of obs   =        500</t>
-  </si>
-  <si>
-    <t>--------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             | Proportion   Std. Err.     [95% Conf. Interval]</t>
-  </si>
-  <si>
-    <t>-------------+------------------------------------------------</t>
-  </si>
-  <si>
-    <t>ooh          |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           0 |         .9   .0134298      .8703488    .9234663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           1 |         .1   .0134298      .0765337    .1296512</t>
-  </si>
-  <si>
     <t>70-74</t>
   </si>
   <si>
@@ -378,46 +123,145 @@
     <t>CSO Total Pop</t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline Stroke Incidence derived from 2 data sources: </t>
-  </si>
-  <si>
-    <t>Obtained via request from www.hpo.ie (HIPEData.Requests@hpo.ie)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Population estimates for 2015, obtained from statbank.cso.ie</t>
-  </si>
-  <si>
-    <t>1. HIPE Data</t>
-  </si>
-  <si>
-    <t>1.CSO Statbank</t>
-  </si>
-  <si>
-    <t>Includes: Ischaemic stroke, Intracerebral haemorrhage, subarachnoid haemorrhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjustments to account for out-of-hospital and incident recurrent strokes derived from: </t>
-  </si>
-  <si>
-    <t>The North Dublin Population Stroke Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access to data obtained via study investigators: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelly, P. J., Crispino, G., Sheehan, O., Kelly, L., Marnane, M., Merwick, A., Hannon, N., Ní Chróinín, D., Callaly, E., Harris, D., Horgan, G., Williams, E. B., Duggan, J., Kyne, L., McCormack, P., Dolan, E., Williams, D., Moroney, J., Kelleher, C., &amp; Daly, L. (2012). </t>
-  </si>
-  <si>
-    <t>Incidence, event rates, and early outcome of stroke in Dublin, Ireland: The north dublin population stroke study. Stroke, 43(8), 2042–2047. https://doi.org/10.1161/STROKEAHA.111.645721</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>CSO Population Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t>Central Statistics Office (Ireland). Population estimates from 1926 (Number) by Sex, Single Year of Age and Year. https://data.cso.ie/table/PEA11</t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Estimated total population resident in the Republic of Ireland in mid-April 2015</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Estimated by the Central Statistics Office using data from the 2012 and 2016 Censuses, and data on births, deaths and migration. See https://www.cso.ie/en/releasesandpublications/er/pme/populationandmigrationestimatesapril2017/, On-line ISSN 2009-5226</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>2012-2016</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Men and Women aged 40-99 years</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>HIPE Data</t>
+  </si>
+  <si>
+    <t>Hospital Inpatient Enquiry system (n.d.). The Healthcare Pricing Office (Ireland). Data obtained via request from www.hpo.ie (HIPEData.Requests@hpo.ie)</t>
+  </si>
+  <si>
+    <t>Men and Women aged 40+ years</t>
+  </si>
+  <si>
+    <t>Hospital admininistrative data. Exclusion criteria: Rehabilitation hospital discharges, discharges with a principal dx of rehabilitation, Discharges with a LOS &lt; 1 day that were transferred to another hospital or home, Discharges with an area of residence outside Rep. of Ireland</t>
+  </si>
+  <si>
+    <t>Acute public hospital discharges related to an episode of incident stroke in the Republic of Ireland in 2015, for Irish residents</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>Principal or secondary diagnosis of ischaemic or haemorrhagic stroke, or stroke not-specified, in 2015 (ICD codes I60-I61, I63-64)</t>
+  </si>
+  <si>
+    <t>Measurement method (out of hospital event)</t>
+  </si>
+  <si>
+    <t>Measurement method (recurrent stroke)</t>
+  </si>
+  <si>
+    <t>NDPSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The North Dublin Population Stroke Study. Kelly et al. (2012) Incidence, event rates, and early outcome of stroke in Dublin, Ireland: The north dublin population stroke study. Stroke, 43(8), 2042–2047. https://doi.org/10.1161/STROKEAHA.111.645721. Access to data obtained via the corresponding author. </t>
+  </si>
+  <si>
+    <t>People with incident stroke in the North Dublin area of Ireland in 2005/2006</t>
+  </si>
+  <si>
+    <t>Gold standard population ascertainment study - see Kelly et al (2012) for details</t>
+  </si>
+  <si>
+    <t>December 1, 2005–November 30, 2006</t>
+  </si>
+  <si>
+    <t>Men and Women aged 40-89</t>
+  </si>
+  <si>
+    <t>Stroke was defined according to the WHO definition</t>
+  </si>
+  <si>
+    <t>Out of hospital event (OOH) defined as not hospitalised for the qualifying event, or hospitalised in a non-acute hospital setting</t>
+  </si>
+  <si>
+    <t>History of clinical stroke existing prior to study onset.</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>HIPE_CSO Calc W; HIPE_CSO Calc M; Stroke Incidence W; Stroke Incidence M</t>
+  </si>
+  <si>
+    <t>OOH Data; Inc Rec Data</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Number of stroke discharges reported in HIPE</t>
+  </si>
+  <si>
+    <t>Estimated total population</t>
+  </si>
+  <si>
+    <t>Incident stroke rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated total population </t>
+  </si>
+  <si>
+    <t>Number of out-of-hospital strokes</t>
+  </si>
+  <si>
+    <t>Total sample size used to estimate out-of-hospital strokes</t>
+  </si>
+  <si>
+    <t>Number of incident recurrent strokes</t>
+  </si>
+  <si>
+    <t>Total sample size used to estimate incident recurrent strokes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,31 +279,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -474,22 +310,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M11"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,42 +652,42 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
         <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -863,7 +696,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -876,7 +709,7 @@
         <v>4.326328800988875E-4</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>4.2481262198509293E-4</v>
@@ -887,7 +720,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -896,7 +729,7 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -918,7 +751,7 @@
         <v>149096</v>
       </c>
       <c r="AB3" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC12" si="1">W3/1000</f>
@@ -935,7 +768,7 @@
       <c r="AG3">
         <v>140.74689000000001</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="4">
         <f t="shared" ref="AI3:AI12" si="4">N3-AG3</f>
         <v>-140.74689000000001</v>
       </c>
@@ -973,7 +806,7 @@
         <v>131298</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="AC4">
         <f t="shared" si="1"/>
@@ -990,7 +823,7 @@
       <c r="AG4">
         <v>182.30973</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="4">
         <f t="shared" si="4"/>
         <v>-182.30973</v>
       </c>
@@ -1019,7 +852,7 @@
         <v>1.1424393364712333E-3</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1.9765233902986363E-3</v>
@@ -1045,14 +878,14 @@
       <c r="AG5">
         <v>319.27818000000002</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="4">
         <f t="shared" si="4"/>
         <v>-319.27818000000002</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1061,7 +894,7 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1074,7 +907,7 @@
         <v>1.9765233902986363E-3</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>2.5898633724907643E-3</v>
@@ -1100,14 +933,14 @@
       <c r="AG6">
         <v>407.12691000000001</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="4">
         <f t="shared" si="4"/>
         <v>-407.12691000000001</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1116,7 +949,7 @@
         <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1129,7 +962,7 @@
         <v>2.5898633724907643E-3</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>4.9853676223033695E-3</v>
@@ -1138,7 +971,7 @@
         <v>77226</v>
       </c>
       <c r="AB7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <f t="shared" si="1"/>
@@ -1155,14 +988,14 @@
       <c r="AG7">
         <v>571.48905000000002</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="4">
         <f t="shared" si="4"/>
         <v>-571.48905000000002</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1171,7 +1004,7 @@
         <v>385</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1184,7 +1017,7 @@
         <v>4.9853676223033695E-3</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>7.9358435600796941E-3</v>
@@ -1193,7 +1026,7 @@
         <v>59729</v>
       </c>
       <c r="AB8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <f t="shared" si="1"/>
@@ -1210,14 +1043,14 @@
       <c r="AG8">
         <v>698.06679000000008</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="4">
         <f t="shared" si="4"/>
         <v>-698.06679000000008</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1226,7 +1059,7 @@
         <v>474</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1239,7 +1072,7 @@
         <v>7.9358435600796941E-3</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>1.2425558590426723E-2</v>
@@ -1248,7 +1081,7 @@
         <v>44666</v>
       </c>
       <c r="AB9" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="AC9">
         <f t="shared" si="1"/>
@@ -1265,14 +1098,14 @@
       <c r="AG9">
         <v>866.20737000000008</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="4">
         <f t="shared" si="4"/>
         <v>-866.20737000000008</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1281,7 +1114,7 @@
         <v>555</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1294,7 +1127,7 @@
         <v>1.2425558590426723E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>1.7174891094765408E-2</v>
@@ -1303,7 +1136,7 @@
         <v>28006</v>
       </c>
       <c r="AB10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC10">
         <f t="shared" si="1"/>
@@ -1320,14 +1153,14 @@
       <c r="AG10">
         <v>960.6683700000001</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="4">
         <f t="shared" si="4"/>
         <v>-960.6683700000001</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1336,7 +1169,7 @@
         <v>481</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1349,7 +1182,7 @@
         <v>1.7174891094765408E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <v>2.1833214908597635E-2</v>
@@ -1358,7 +1191,7 @@
         <v>15481</v>
       </c>
       <c r="AB11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AC11">
         <f t="shared" si="1"/>
@@ -1375,14 +1208,14 @@
       <c r="AG11">
         <v>962.55759000000012</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="4">
         <f t="shared" si="4"/>
         <v>-962.55759000000012</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1391,7 +1224,7 @@
         <v>338</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1404,7 +1237,7 @@
         <v>2.1833214908597635E-2</v>
       </c>
       <c r="AB12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AC12">
         <f t="shared" si="1"/>
@@ -1421,14 +1254,14 @@
       <c r="AG12">
         <v>705.62367000000006</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="4">
         <f t="shared" si="4"/>
         <v>-705.62367000000006</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <f>C2+C3</f>
@@ -1444,11 +1277,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AB16" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AC16">
         <f>W16/1000</f>
@@ -1474,7 +1307,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,36 +1318,36 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1523,7 +1356,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1536,7 +1369,7 @@
         <v>4.2852979996228937E-4</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>6.1190331927555447E-4</v>
@@ -1547,7 +1380,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1556,7 +1389,7 @@
         <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1635,7 +1468,7 @@
         <v>2.2900290895587054E-3</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>3.5745036136405144E-3</v>
@@ -1646,7 +1479,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1655,7 +1488,7 @@
         <v>411</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1668,7 +1501,7 @@
         <v>3.5745036136405144E-3</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>5.007704160246533E-3</v>
@@ -1679,7 +1512,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1688,7 +1521,7 @@
         <v>507</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1701,7 +1534,7 @@
         <v>5.007704160246533E-3</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>8.0143443179657142E-3</v>
@@ -1712,7 +1545,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1721,7 +1554,7 @@
         <v>590</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1734,7 +1567,7 @@
         <v>8.0143443179657142E-3</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1.1193531778570203E-2</v>
@@ -1745,7 +1578,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1754,7 +1587,7 @@
         <v>587</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1767,7 +1600,7 @@
         <v>1.1193531778570203E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>1.5331398587048926E-2</v>
@@ -1778,7 +1611,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1787,7 +1620,7 @@
         <v>523</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1800,7 +1633,7 @@
         <v>1.5331398587048926E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>2.1002234280242581E-2</v>
@@ -1811,7 +1644,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1820,7 +1653,7 @@
         <v>329</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1833,7 +1666,7 @@
         <v>2.1002234280242581E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <v>2.6046188574405278E-2</v>
@@ -1844,7 +1677,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1853,7 +1686,7 @@
         <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1868,7 +1701,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <f>C2+C3</f>
@@ -1890,586 +1723,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P99"/>
-  <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>37</v>
-      </c>
-      <c r="J7" s="5">
-        <f>(H7/I7)*100</f>
-        <v>13.513513513513514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>64</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>69</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ref="J8:J13" si="0">(H8/I8)*100</f>
-        <v>7.2463768115942031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>104</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>114</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.7719298245614024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>141</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>156</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>119</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>135</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
-        <v>11.851851851851853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>33</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>27.27272727272727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <f>SUM(G7:G12)</f>
-        <v>484</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:I13" si="1">SUM(H7:H12)</f>
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>544</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>11.029411764705882</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82">
-        <v>450</v>
-      </c>
-      <c r="D82">
-        <v>90</v>
-      </c>
-      <c r="E82">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="6">
-        <v>50</v>
-      </c>
-      <c r="D83" s="6">
-        <v>10</v>
-      </c>
-      <c r="E83">
-        <v>100</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2484,18 +1737,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2537,7 +1790,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2551,7 +1804,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2565,7 +1818,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2579,7 +1832,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2593,7 +1846,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2607,7 +1860,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2621,7 +1874,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2639,7 +1892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2654,18 +1907,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2707,7 +1960,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2721,7 +1974,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2735,7 +1988,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2749,7 +2002,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2763,7 +2016,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2777,7 +2030,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2791,7 +2044,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2809,12 +2062,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2824,10 +2077,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,6 +2089,91 @@
       </c>
       <c r="B2">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>26+69</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2846,81 +2184,172 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>15</v>
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>5</f>
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <f>26+69</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5">
-        <v>135</v>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>6960</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2931,131 +2360,92 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>124</v>
+      <c r="B9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>